--- a/xk-kxsz-admin/static/template/学生模板.xlsx
+++ b/xk-kxsz-admin/static/template/学生模板.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1726E866-DB3C-40B3-897E-7E9AD16902CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="3" lowestEdited="5" rupBuild="1.0.1.35089"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17976" windowHeight="7128" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>姓名(必须)</t>
   </si>
@@ -37,85 +37,479 @@
     <t>性别(必须)</t>
   </si>
   <si>
+    <t>所在年级(必须)</t>
+  </si>
+  <si>
+    <t>所在班级(必须)</t>
+  </si>
+  <si>
+    <t>刘诗琪</t>
+  </si>
+  <si>
+    <t>居民身份证</t>
+  </si>
+  <si>
+    <t>440203200805028229</t>
+  </si>
+  <si>
+    <t>韶关市第八中学</t>
+  </si>
+  <si>
+    <t>男/女</t>
+  </si>
+  <si>
+    <t>二年级</t>
+  </si>
+  <si>
+    <t>初中2014级5班</t>
+  </si>
+  <si>
+    <t>（样例,上传时请保留此信息）</t>
+  </si>
+  <si>
+    <t>蔡盒马</t>
+  </si>
+  <si>
+    <t>440203200805010203</t>
+  </si>
+  <si>
+    <t>440203200805010</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>韶关市曲江区白土镇孟州坝小学</t>
+  </si>
+  <si>
+    <t>韶关市第一中学</t>
+  </si>
+  <si>
+    <t>高一</t>
+  </si>
+  <si>
+    <t>高中2017级14班</t>
+  </si>
+  <si>
+    <t>蔡盒马2</t>
+  </si>
+  <si>
+    <t>440203200805010204</t>
+  </si>
+  <si>
+    <t>蔡盒马3</t>
+  </si>
+  <si>
+    <t>440203200805010205</t>
+  </si>
+  <si>
+    <t>蔡盒马4</t>
+  </si>
+  <si>
+    <t>440203200805010206</t>
+  </si>
+  <si>
+    <t>蔡盒马5</t>
+  </si>
+  <si>
+    <t>440203200805010207</t>
+  </si>
+  <si>
+    <t>蔡盒马6</t>
+  </si>
+  <si>
+    <t>440203200805010208</t>
+  </si>
+  <si>
+    <t>蔡盒马7</t>
+  </si>
+  <si>
+    <t>440203200805010209</t>
+  </si>
+  <si>
     <t>学号</t>
   </si>
   <si>
     <t>入学日期</t>
   </si>
   <si>
-    <t>刘诗琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>居民身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韶关市第八中学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男/女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201409</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>440203200805028229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初中2014级5班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在年级(必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所在班级(必须)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（样例,上传时请保留此信息）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF800080"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="宋体"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -123,28 +517,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -191,7 +880,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,26 +913,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,23 +948,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,142 +1118,144 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="11" width="28.21875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9" style="1"/>
-    <col min="27" max="27" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="2" width="13.08018218" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="15.21747218" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="2" width="21.62933933" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="31.43572627" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="31.56144916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="2" width="10.18855583" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="3" width="11.06861602" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="3" width="12.07439910" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="2" width="24.14379894" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="2" width="19.99494182" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="2" width="28.16693126" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="13" style="2" width="15.21747218" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="2" width="17.48048412" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="16" style="2" width="15.21747218" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="22" style="2" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="23" max="23" style="2" width="11.06861602" customWidth="1" outlineLevel="0"/>
+    <col min="24" max="26" style="2" width="9.05704891" customWidth="1" outlineLevel="0"/>
+    <col min="27" max="27" style="2" width="13.33162795" customWidth="1" outlineLevel="0"/>
+    <col min="28" max="16384" style="2" width="9.05704891" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" s="0" customFormat="1">
+      <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F2 F3:F1048574">
       <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="13.500000"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>